--- a/config_至尊排位赛/zhizhun_rank_match_config.xlsx
+++ b/config_至尊排位赛/zhizhun_rank_match_config.xlsx
@@ -279,7 +279,7 @@
     <t>gailv|概率</t>
   </si>
   <si>
-    <t>|计算</t>
+    <t>|计算M</t>
   </si>
   <si>
     <t>标准步数 C</t>
@@ -2108,7 +2108,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>

--- a/config_至尊排位赛/zhizhun_rank_match_config.xlsx
+++ b/config_至尊排位赛/zhizhun_rank_match_config.xlsx
@@ -288,10 +288,10 @@
     <t>步数n概率 Sn : S1+...+S6=1</t>
   </si>
   <si>
-    <t>Sn与C之间的距离因子 ： Dn=C-n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">系数 M ： Sn = M/Dn  </t>
+    <t>步数n与C之间的距离因子 ： Dn=C-n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dn取倒数，引入系数 M ： Sn = M/Dn  </t>
   </si>
   <si>
     <t>1/M = (1/D1 + ... + 1/Dn)</t>
@@ -2108,7 +2108,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -2148,11 +2148,11 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>$C$8/(ABS($D$3-A2)*ABS($D$3-A2))</f>
+        <f>$C$8*C2</f>
         <v>0.0155548105659248</v>
       </c>
       <c r="C2">
-        <f>1/(ABS($D$3-A2)*ABS($D$3-A2))</f>
+        <f>1/POWER(ABS($D$3-A2),2)</f>
         <v>0.151234567901235</v>
       </c>
       <c r="D2" t="s">
@@ -2164,11 +2164,11 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>$C$8/(ABS($D$3-A3)*ABS($D$3-A3))</f>
+        <f>$C$8*C3</f>
         <v>0.0416508977137159</v>
       </c>
       <c r="C3">
-        <f>1/(ABS($D$3-A3)*ABS($D$3-A3))</f>
+        <f>1/POWER(ABS($D$3-A3),2)</f>
         <v>0.40495867768595</v>
       </c>
       <c r="D3" s="4">
@@ -2181,11 +2181,11 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>$C$8/(ABS($D$3-A4)*ABS($D$3-A4))</f>
+        <f>$C$8*C4</f>
         <v>0.314984913959977</v>
       </c>
       <c r="C4">
-        <f>1/(ABS($D$3-A4)*ABS($D$3-A4))</f>
+        <f>1/POWER(ABS($D$3-A4),2)</f>
         <v>3.0625</v>
       </c>
       <c r="D4" t="s">
@@ -2197,11 +2197,11 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>$C$8/(ABS($D$3-A5)*ABS($D$3-A5))</f>
+        <f>$C$8*C5</f>
         <v>0.559973180373293</v>
       </c>
       <c r="C5">
-        <f>1/(ABS($D$3-A5)*ABS($D$3-A5))</f>
+        <f>1/POWER(ABS($D$3-A5),2)</f>
         <v>5.44444444444445</v>
       </c>
       <c r="D5" t="s">
@@ -2213,11 +2213,11 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>$C$8/(ABS($D$3-A6)*ABS($D$3-A6))</f>
+        <f>$C$8*C6</f>
         <v>0.0503975862335963</v>
       </c>
       <c r="C6">
-        <f>1/(ABS($D$3-A6)*ABS($D$3-A6))</f>
+        <f>1/POWER(ABS($D$3-A6),2)</f>
         <v>0.49</v>
       </c>
       <c r="D6" t="s">
@@ -2229,11 +2229,11 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>$C$8/(ABS($D$3-A7)*ABS($D$3-A7))</f>
+        <f>$C$8*C7</f>
         <v>0.0174386111534935</v>
       </c>
       <c r="C7">
-        <f>1/(ABS($D$3-A7)*ABS($D$3-A7))</f>
+        <f>1/POWER(ABS($D$3-A7),2)</f>
         <v>0.169550173010381</v>
       </c>
       <c r="D7" t="s">

--- a/config_至尊排位赛/zhizhun_rank_match_config.xlsx
+++ b/config_至尊排位赛/zhizhun_rank_match_config.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31335" windowHeight="16320" activeTab="2"/>
+    <workbookView windowWidth="26760" windowHeight="15270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cell_award|格子奖励" sheetId="1" r:id="rId1"/>
     <sheet name="asset_type|财富类型定义" sheetId="2" r:id="rId2"/>
-    <sheet name="dice_gailv|骰子概率" sheetId="3" r:id="rId3"/>
+    <sheet name="duanwei|段位配置" sheetId="4" r:id="rId3"/>
+    <sheet name="take_gailv|瓜分概率" sheetId="5" r:id="rId4"/>
+    <sheet name="dice_gailv|骰子概率" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -85,7 +87,71 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+award_rate配套的任务</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+award_rate配套的任务</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="130">
   <si>
     <t>id|方格序号</t>
   </si>
@@ -258,6 +324,12 @@
     <t>|说明</t>
   </si>
   <si>
+    <t>add_pool</t>
+  </si>
+  <si>
+    <t>增加奖池</t>
+  </si>
+  <si>
     <t>jing_bi</t>
   </si>
   <si>
@@ -276,16 +348,215 @@
     <t>冰冻</t>
   </si>
   <si>
+    <t>id|序号</t>
+  </si>
+  <si>
+    <t>duanwei|段位</t>
+  </si>
+  <si>
+    <t>grade|等级</t>
+  </si>
+  <si>
+    <t>exp|经验点数</t>
+  </si>
+  <si>
+    <t>award_pool|初始奖池</t>
+  </si>
+  <si>
+    <t>award_pool_gailv|奖池
+瓜分概率</t>
+  </si>
+  <si>
+    <t>tong</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>yin</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>350000</t>
+  </si>
+  <si>
+    <t>huangjin</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>450000</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>baijin</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>550000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>650000</t>
+  </si>
+  <si>
+    <t>zuanshi</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>750000</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>800000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>850000</t>
+  </si>
+  <si>
+    <t>id|id</t>
+  </si>
+  <si>
+    <t>gailv_id|概率id</t>
+  </si>
+  <si>
+    <t>percent|比例0~100</t>
+  </si>
+  <si>
+    <t>gailv|概率0~100</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>step_num|移动步数</t>
+  </si>
+  <si>
     <t>gailv|概率</t>
   </si>
   <si>
+    <t>|计算Dn</t>
+  </si>
+  <si>
     <t>|计算M</t>
   </si>
   <si>
-    <t>标准步数 C</t>
-  </si>
-  <si>
-    <t>步数n概率 Sn : S1+...+S6=1</t>
+    <t>|说明1</t>
+  </si>
+  <si>
+    <t>|说明2</t>
+  </si>
+  <si>
+    <t>标准步数 C （据骰子的中位数 7）</t>
+  </si>
+  <si>
+    <t>S1*1 + ... + Sn*n = C</t>
+  </si>
+  <si>
+    <t>S1*1 = ... = Sn*n = C/n</t>
+  </si>
+  <si>
+    <t>最大移动步数 N</t>
+  </si>
+  <si>
+    <t>S1=C/(n*1) ,..., Sn=C/(n*n)</t>
+  </si>
+  <si>
+    <t>步数n概率 Sn : S1+...+Sn=1</t>
   </si>
   <si>
     <t>步数n与C之间的距离因子 ： Dn=C-n</t>
@@ -294,7 +565,10 @@
     <t xml:space="preserve">Dn取倒数，引入系数 M ： Sn = M/Dn  </t>
   </si>
   <si>
-    <t>1/M = (1/D1 + ... + 1/Dn)</t>
+    <t>M/D1+...+ M/Dn=1</t>
+  </si>
+  <si>
+    <t>所以： M = 1/(1/D1 + ... + 1/Dn)</t>
   </si>
 </sst>
 </file>
@@ -302,11 +576,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -324,7 +598,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,21 +612,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,30 +664,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,9 +680,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,7 +719,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -427,49 +727,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -498,19 +772,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +814,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,115 +880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,13 +898,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,23 +984,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,30 +1001,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,8 +1034,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,10 +1086,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,136 +1098,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1327,7 +1601,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2031,13 +2305,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
@@ -2092,6 +2366,17 @@
       </c>
       <c r="C4" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2105,145 +2390,1103 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="36.875" customWidth="1"/>
-    <col min="5" max="5" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="36.125" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="5" customWidth="1"/>
+    <col min="3" max="5" width="16.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="2"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>$C$8*C2</f>
-        <v>0.0155548105659248</v>
-      </c>
-      <c r="C2">
-        <f>1/POWER(ABS($D$3-A2),2)</f>
-        <v>0.151234567901235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f>$C$8*C3</f>
-        <v>0.0416508977137159</v>
-      </c>
-      <c r="C3">
-        <f>1/POWER(ABS($D$3-A3),2)</f>
-        <v>0.40495867768595</v>
-      </c>
-      <c r="D3" s="4">
-        <f>25/7</f>
-        <v>3.57142857142857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f>$C$8*C4</f>
-        <v>0.314984913959977</v>
-      </c>
-      <c r="C4">
-        <f>1/POWER(ABS($D$3-A4),2)</f>
-        <v>3.0625</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f>$C$8*C5</f>
-        <v>0.559973180373293</v>
-      </c>
-      <c r="C5">
-        <f>1/POWER(ABS($D$3-A5),2)</f>
-        <v>5.44444444444445</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f>$C$8*C6</f>
-        <v>0.0503975862335963</v>
-      </c>
-      <c r="C6">
-        <f>1/POWER(ABS($D$3-A6),2)</f>
-        <v>0.49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f>$C$8*C7</f>
-        <v>0.0174386111534935</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" ht="21" customHeight="1" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" ht="21" customHeight="1" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" ht="21" customHeight="1" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" ht="21" customHeight="1" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" ht="21" customHeight="1" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="36.875" customWidth="1"/>
+    <col min="6" max="6" width="70.125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>$D$22/C2</f>
+        <v>0.0157002293663226</v>
+      </c>
+      <c r="C2">
+        <f>POWER(ABS($E$3-A2),1.7)</f>
+        <v>5.46027421590498</v>
+      </c>
+      <c r="D2">
+        <f>1/C2</f>
+        <v>0.183140985316662</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B21" si="0">$D$22/C3</f>
+        <v>0.0342909092126375</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C21" si="1">POWER(ABS($E$3-A3),1.7)</f>
+        <v>2.50000829844231</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D21" si="2">1/C3</f>
+        <v>0.399998672253638</v>
+      </c>
+      <c r="E3" s="4">
+        <f>26/7</f>
+        <v>3.71428571428571</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.151893122945566</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.564393936540812</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>1.77181208949379</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.721167465865214</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.118873301487435</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>8.41231788372342</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.0559209901704096</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1.53301215396017</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>0.652310549147792</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.0210272824398512</v>
       </c>
       <c r="C7">
-        <f>1/POWER(ABS($D$3-A7),2)</f>
-        <v>0.169550173010381</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
+        <f t="shared" si="1"/>
+        <v>4.0769679980259</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>0.245280316275283</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.0113461833547304</v>
+      </c>
       <c r="C8">
-        <f>1/SUM(C2:C7)</f>
-        <v>0.102852216803258</v>
+        <f t="shared" si="1"/>
+        <v>7.55562949341768</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0.132351645997356</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.00722239082527311</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>11.8696924144206</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.0842481814259221</v>
+      </c>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.00505643219428199</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>16.9541594347235</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0.0589825761548473</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.00376632305476141</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>22.761604978189</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.0439336330174536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.00293033869091976</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>29.2551703522768</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.0341819920362274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.00235482983562163</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>36.4049904141354</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.0274687615248408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.00194014599874346</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>44.1861373568004</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0.0226315324176236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.00163050402338743</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>52.5773358195237</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.0190196019713244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.00139258291767961</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>61.5601099973054</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.0162442854641386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.001205423771268</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>71.1181906613205</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.0140611001306572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.00105527610943394</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>81.237087456391</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.0123096486015308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.000932796952879976</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>91.903771049042</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.0108809463266352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.000831447241264601</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>103.106430977312</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0.00969871607931071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.000746532761530282</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>114.834287268246</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0.00870820051910158</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22">
+        <f>1/SUM(D2:D7)</f>
+        <v>0.0857275575927254</v>
       </c>
     </row>
   </sheetData>

--- a/config_至尊排位赛/zhizhun_rank_match_config.xlsx
+++ b/config_至尊排位赛/zhizhun_rank_match_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26760" windowHeight="15270" activeTab="1"/>
+    <workbookView windowWidth="26760" windowHeight="15270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cell_award|格子奖励" sheetId="1" r:id="rId1"/>
@@ -2307,8 +2307,8 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2392,8 +2392,8 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
